--- a/info.xlsx
+++ b/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">cedula</t>
   </si>
@@ -31,16 +31,40 @@
     <t xml:space="preserve">cargo</t>
   </si>
   <si>
-    <t xml:space="preserve">PAULO ILICH BACCA BENAVIDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profesor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angel Corredor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pregrado</t>
+    <t xml:space="preserve">maria fernanda quintero llano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julian arturo marin mendez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laura fernanda tamayo gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maria paula unigarro alba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diana carolina rojas martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jose yesid benjumea betancur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mylson berley betancourt santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adriana francisca salinas esteban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">christian yair chacon herrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgar augusto ardila amaya</t>
   </si>
 </sst>
 </file>
@@ -55,6 +79,7 @@
       <sz val="10"/>
       <name val="Nimbus Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,17 +161,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,7 +185,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>98137513</v>
+        <v>1112765036</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -173,13 +196,101 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1030684287</v>
+        <v>90043053140</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>91010208055</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>90082769918</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>91012204855</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>79715857</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>79886426</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>52820065</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1010173965</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>91101631</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
